--- a/020_アプリケーション開発標準/010_設計標準/UI標準(帳票).xlsx
+++ b/020_アプリケーション開発標準/010_設計標準/UI標準(帳票).xlsx
@@ -12,9 +12,6 @@
     <sheet name="目次" sheetId="30" r:id="rId3"/>
     <sheet name="UI標準(帳票)" sheetId="31" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'UI標準(帳票)'!$A$1:$AI$369</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
@@ -23,7 +20,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'UI標準(帳票)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
-    <definedName name="データ型">[1]データ!$A$2:$A$22</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2437,6 +2433,87 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2467,7 +2544,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2560,86 +2637,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2649,39 +2657,6 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2746,8 +2721,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -16620,161 +16616,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="変更履歴"/>
-      <sheetName val="目次"/>
-      <sheetName val="外部インターフェース仕様"/>
-      <sheetName val="レコード構成"/>
-      <sheetName val="ヘッダレコード"/>
-      <sheetName val="ユーザ情報レコード"/>
-      <sheetName val="別紙 データ型について"/>
-      <sheetName val="外部インターフェース仕様 (MQサンプル)"/>
-      <sheetName val="レコード構成 (MQサンプル)"/>
-      <sheetName val="MQ共通"/>
-      <sheetName val="共通ヘッダ"/>
-      <sheetName val="外部インターフェース仕様 (階層構造サンプル(XML))"/>
-      <sheetName val="レコード構成(階層構造サンプル(XML))"/>
-      <sheetName val="データレイアウト(階層構造サンプル(XML))"/>
-      <sheetName val="外部インターフェース仕様 (階層構造サンプル(JSON))"/>
-      <sheetName val="レコード構成(階層構造サンプル(JSON))"/>
-      <sheetName val="データレイアウト(階層構造サンプル(JSON))"/>
-      <sheetName val="データ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>半角英字</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>半角数字</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>半角カナ</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>半角英数字</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>半角英数字記号</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>半角</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>全角ひらがな</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>全角カタカナ</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>全角</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>全角(外字含む)</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>全半角</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>全半角(外字含む)</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>符号無ゾーン10進数</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>符号付ゾーン10進数</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>符号無パック10進数</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>符号付パック10進数</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>符号無数値</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>符号付数値</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>バイナリ</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>オブジェクト</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>真偽値</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -17725,57 +17566,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="179" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="155" t="s">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="182" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="156" t="s">
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="165" t="s">
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="192" t="s">
         <v>141</v>
       </c>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="143" t="s">
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
+      <c r="Y1" s="193"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="174" t="str">
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="201" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="136">
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="203"/>
+      <c r="AG1" s="163">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="138"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="165"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -17783,53 +17624,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="239" t="s">
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="143" t="s">
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="197"/>
+      <c r="AA2" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="149" t="str">
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="176" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="136" t="str">
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="163" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="138"/>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="165"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -17837,43 +17678,43 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="138"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="200"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="201"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="165"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -17910,1190 +17751,1034 @@
       <c r="A7" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139" t="s">
+      <c r="C7" s="167"/>
+      <c r="D7" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="141"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="139" t="s">
+      <c r="E7" s="168"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="141"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="142" t="s">
+      <c r="H7" s="168"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="169" t="s">
         <v>220</v>
       </c>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="139" t="s">
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="141"/>
-      <c r="S7" s="141"/>
-      <c r="T7" s="141"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="141"/>
-      <c r="W7" s="141"/>
-      <c r="X7" s="141"/>
-      <c r="Y7" s="141"/>
-      <c r="Z7" s="141"/>
-      <c r="AA7" s="141"/>
-      <c r="AB7" s="141"/>
-      <c r="AC7" s="141"/>
-      <c r="AD7" s="141"/>
-      <c r="AE7" s="140"/>
-      <c r="AF7" s="139" t="s">
+      <c r="R7" s="168"/>
+      <c r="S7" s="168"/>
+      <c r="T7" s="168"/>
+      <c r="U7" s="168"/>
+      <c r="V7" s="168"/>
+      <c r="W7" s="168"/>
+      <c r="X7" s="168"/>
+      <c r="Y7" s="168"/>
+      <c r="Z7" s="168"/>
+      <c r="AA7" s="168"/>
+      <c r="AB7" s="168"/>
+      <c r="AC7" s="168"/>
+      <c r="AD7" s="168"/>
+      <c r="AE7" s="167"/>
+      <c r="AF7" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="AG7" s="141"/>
-      <c r="AH7" s="141"/>
-      <c r="AI7" s="140"/>
+      <c r="AG7" s="168"/>
+      <c r="AH7" s="168"/>
+      <c r="AI7" s="167"/>
     </row>
     <row r="8" spans="1:40" s="56" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="189" t="s">
+      <c r="B8" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="190"/>
-      <c r="D8" s="191">
+      <c r="C8" s="150"/>
+      <c r="D8" s="151">
         <v>43336</v>
       </c>
-      <c r="E8" s="192"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="194" t="s">
+      <c r="E8" s="152"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="195"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197" t="s">
+      <c r="H8" s="155"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="198"/>
-      <c r="O8" s="198"/>
-      <c r="P8" s="199"/>
-      <c r="Q8" s="200" t="s">
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="160" t="s">
         <v>139</v>
       </c>
-      <c r="R8" s="201"/>
-      <c r="S8" s="201"/>
-      <c r="T8" s="201"/>
-      <c r="U8" s="201"/>
-      <c r="V8" s="201"/>
-      <c r="W8" s="201"/>
-      <c r="X8" s="201"/>
-      <c r="Y8" s="201"/>
-      <c r="Z8" s="201"/>
-      <c r="AA8" s="201"/>
-      <c r="AB8" s="201"/>
-      <c r="AC8" s="201"/>
-      <c r="AD8" s="201"/>
-      <c r="AE8" s="202"/>
-      <c r="AF8" s="197" t="s">
+      <c r="R8" s="161"/>
+      <c r="S8" s="161"/>
+      <c r="T8" s="161"/>
+      <c r="U8" s="161"/>
+      <c r="V8" s="161"/>
+      <c r="W8" s="161"/>
+      <c r="X8" s="161"/>
+      <c r="Y8" s="161"/>
+      <c r="Z8" s="161"/>
+      <c r="AA8" s="161"/>
+      <c r="AB8" s="161"/>
+      <c r="AC8" s="161"/>
+      <c r="AD8" s="161"/>
+      <c r="AE8" s="162"/>
+      <c r="AF8" s="157" t="s">
         <v>140</v>
       </c>
-      <c r="AG8" s="198"/>
-      <c r="AH8" s="198"/>
-      <c r="AI8" s="199"/>
+      <c r="AG8" s="158"/>
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="159"/>
     </row>
     <row r="9" spans="1:40" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="184"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="187"/>
-      <c r="S9" s="187"/>
-      <c r="T9" s="187"/>
-      <c r="U9" s="187"/>
-      <c r="V9" s="187"/>
-      <c r="W9" s="187"/>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="187"/>
-      <c r="Z9" s="187"/>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="187"/>
-      <c r="AC9" s="187"/>
-      <c r="AD9" s="187"/>
-      <c r="AE9" s="188"/>
-      <c r="AF9" s="183"/>
-      <c r="AG9" s="184"/>
-      <c r="AH9" s="184"/>
-      <c r="AI9" s="185"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="145"/>
+      <c r="R9" s="146"/>
+      <c r="S9" s="146"/>
+      <c r="T9" s="146"/>
+      <c r="U9" s="146"/>
+      <c r="V9" s="146"/>
+      <c r="W9" s="146"/>
+      <c r="X9" s="146"/>
+      <c r="Y9" s="146"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="146"/>
+      <c r="AE9" s="147"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="143"/>
+      <c r="AH9" s="143"/>
+      <c r="AI9" s="144"/>
     </row>
     <row r="10" spans="1:40" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="187"/>
-      <c r="T10" s="187"/>
-      <c r="U10" s="187"/>
-      <c r="V10" s="187"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="187"/>
-      <c r="Z10" s="187"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="187"/>
-      <c r="AC10" s="187"/>
-      <c r="AD10" s="187"/>
-      <c r="AE10" s="188"/>
-      <c r="AF10" s="183"/>
-      <c r="AG10" s="184"/>
-      <c r="AH10" s="184"/>
-      <c r="AI10" s="185"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="146"/>
+      <c r="U10" s="146"/>
+      <c r="V10" s="146"/>
+      <c r="W10" s="146"/>
+      <c r="X10" s="146"/>
+      <c r="Y10" s="146"/>
+      <c r="Z10" s="146"/>
+      <c r="AA10" s="146"/>
+      <c r="AB10" s="146"/>
+      <c r="AC10" s="146"/>
+      <c r="AD10" s="146"/>
+      <c r="AE10" s="147"/>
+      <c r="AF10" s="142"/>
+      <c r="AG10" s="143"/>
+      <c r="AH10" s="143"/>
+      <c r="AI10" s="144"/>
     </row>
     <row r="11" spans="1:40" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="184"/>
-      <c r="N11" s="184"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="185"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="187"/>
-      <c r="S11" s="187"/>
-      <c r="T11" s="187"/>
-      <c r="U11" s="187"/>
-      <c r="V11" s="187"/>
-      <c r="W11" s="187"/>
-      <c r="X11" s="187"/>
-      <c r="Y11" s="187"/>
-      <c r="Z11" s="187"/>
-      <c r="AA11" s="187"/>
-      <c r="AB11" s="187"/>
-      <c r="AC11" s="187"/>
-      <c r="AD11" s="187"/>
-      <c r="AE11" s="188"/>
-      <c r="AF11" s="183"/>
-      <c r="AG11" s="184"/>
-      <c r="AH11" s="184"/>
-      <c r="AI11" s="185"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="146"/>
+      <c r="S11" s="146"/>
+      <c r="T11" s="146"/>
+      <c r="U11" s="146"/>
+      <c r="V11" s="146"/>
+      <c r="W11" s="146"/>
+      <c r="X11" s="146"/>
+      <c r="Y11" s="146"/>
+      <c r="Z11" s="146"/>
+      <c r="AA11" s="146"/>
+      <c r="AB11" s="146"/>
+      <c r="AC11" s="146"/>
+      <c r="AD11" s="146"/>
+      <c r="AE11" s="147"/>
+      <c r="AF11" s="142"/>
+      <c r="AG11" s="143"/>
+      <c r="AH11" s="143"/>
+      <c r="AI11" s="144"/>
     </row>
     <row r="12" spans="1:40" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="185"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="187"/>
-      <c r="S12" s="187"/>
-      <c r="T12" s="187"/>
-      <c r="U12" s="187"/>
-      <c r="V12" s="187"/>
-      <c r="W12" s="187"/>
-      <c r="X12" s="187"/>
-      <c r="Y12" s="187"/>
-      <c r="Z12" s="187"/>
-      <c r="AA12" s="187"/>
-      <c r="AB12" s="187"/>
-      <c r="AC12" s="187"/>
-      <c r="AD12" s="187"/>
-      <c r="AE12" s="188"/>
-      <c r="AF12" s="183"/>
-      <c r="AG12" s="184"/>
-      <c r="AH12" s="184"/>
-      <c r="AI12" s="185"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="146"/>
+      <c r="S12" s="146"/>
+      <c r="T12" s="146"/>
+      <c r="U12" s="146"/>
+      <c r="V12" s="146"/>
+      <c r="W12" s="146"/>
+      <c r="X12" s="146"/>
+      <c r="Y12" s="146"/>
+      <c r="Z12" s="146"/>
+      <c r="AA12" s="146"/>
+      <c r="AB12" s="146"/>
+      <c r="AC12" s="146"/>
+      <c r="AD12" s="146"/>
+      <c r="AE12" s="147"/>
+      <c r="AF12" s="142"/>
+      <c r="AG12" s="143"/>
+      <c r="AH12" s="143"/>
+      <c r="AI12" s="144"/>
     </row>
     <row r="13" spans="1:40" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="184"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="185"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="187"/>
-      <c r="S13" s="187"/>
-      <c r="T13" s="187"/>
-      <c r="U13" s="187"/>
-      <c r="V13" s="187"/>
-      <c r="W13" s="187"/>
-      <c r="X13" s="187"/>
-      <c r="Y13" s="187"/>
-      <c r="Z13" s="187"/>
-      <c r="AA13" s="187"/>
-      <c r="AB13" s="187"/>
-      <c r="AC13" s="187"/>
-      <c r="AD13" s="187"/>
-      <c r="AE13" s="188"/>
-      <c r="AF13" s="183"/>
-      <c r="AG13" s="184"/>
-      <c r="AH13" s="184"/>
-      <c r="AI13" s="185"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="146"/>
+      <c r="S13" s="146"/>
+      <c r="T13" s="146"/>
+      <c r="U13" s="146"/>
+      <c r="V13" s="146"/>
+      <c r="W13" s="146"/>
+      <c r="X13" s="146"/>
+      <c r="Y13" s="146"/>
+      <c r="Z13" s="146"/>
+      <c r="AA13" s="146"/>
+      <c r="AB13" s="146"/>
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="146"/>
+      <c r="AE13" s="147"/>
+      <c r="AF13" s="142"/>
+      <c r="AG13" s="143"/>
+      <c r="AH13" s="143"/>
+      <c r="AI13" s="144"/>
     </row>
     <row r="14" spans="1:40" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-      <c r="N14" s="184"/>
-      <c r="O14" s="184"/>
-      <c r="P14" s="185"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="187"/>
-      <c r="T14" s="187"/>
-      <c r="U14" s="187"/>
-      <c r="V14" s="187"/>
-      <c r="W14" s="187"/>
-      <c r="X14" s="187"/>
-      <c r="Y14" s="187"/>
-      <c r="Z14" s="187"/>
-      <c r="AA14" s="187"/>
-      <c r="AB14" s="187"/>
-      <c r="AC14" s="187"/>
-      <c r="AD14" s="187"/>
-      <c r="AE14" s="188"/>
-      <c r="AF14" s="183"/>
-      <c r="AG14" s="184"/>
-      <c r="AH14" s="184"/>
-      <c r="AI14" s="185"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="146"/>
+      <c r="S14" s="146"/>
+      <c r="T14" s="146"/>
+      <c r="U14" s="146"/>
+      <c r="V14" s="146"/>
+      <c r="W14" s="146"/>
+      <c r="X14" s="146"/>
+      <c r="Y14" s="146"/>
+      <c r="Z14" s="146"/>
+      <c r="AA14" s="146"/>
+      <c r="AB14" s="146"/>
+      <c r="AC14" s="146"/>
+      <c r="AD14" s="146"/>
+      <c r="AE14" s="147"/>
+      <c r="AF14" s="142"/>
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="143"/>
+      <c r="AI14" s="144"/>
     </row>
     <row r="15" spans="1:40" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="184"/>
-      <c r="O15" s="184"/>
-      <c r="P15" s="185"/>
-      <c r="Q15" s="186"/>
-      <c r="R15" s="187"/>
-      <c r="S15" s="187"/>
-      <c r="T15" s="187"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="187"/>
-      <c r="W15" s="187"/>
-      <c r="X15" s="187"/>
-      <c r="Y15" s="187"/>
-      <c r="Z15" s="187"/>
-      <c r="AA15" s="187"/>
-      <c r="AB15" s="187"/>
-      <c r="AC15" s="187"/>
-      <c r="AD15" s="187"/>
-      <c r="AE15" s="188"/>
-      <c r="AF15" s="183"/>
-      <c r="AG15" s="184"/>
-      <c r="AH15" s="184"/>
-      <c r="AI15" s="185"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="146"/>
+      <c r="S15" s="146"/>
+      <c r="T15" s="146"/>
+      <c r="U15" s="146"/>
+      <c r="V15" s="146"/>
+      <c r="W15" s="146"/>
+      <c r="X15" s="146"/>
+      <c r="Y15" s="146"/>
+      <c r="Z15" s="146"/>
+      <c r="AA15" s="146"/>
+      <c r="AB15" s="146"/>
+      <c r="AC15" s="146"/>
+      <c r="AD15" s="146"/>
+      <c r="AE15" s="147"/>
+      <c r="AF15" s="142"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="143"/>
+      <c r="AI15" s="144"/>
     </row>
     <row r="16" spans="1:40" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="184"/>
-      <c r="N16" s="184"/>
-      <c r="O16" s="184"/>
-      <c r="P16" s="185"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="187"/>
-      <c r="S16" s="187"/>
-      <c r="T16" s="187"/>
-      <c r="U16" s="187"/>
-      <c r="V16" s="187"/>
-      <c r="W16" s="187"/>
-      <c r="X16" s="187"/>
-      <c r="Y16" s="187"/>
-      <c r="Z16" s="187"/>
-      <c r="AA16" s="187"/>
-      <c r="AB16" s="187"/>
-      <c r="AC16" s="187"/>
-      <c r="AD16" s="187"/>
-      <c r="AE16" s="188"/>
-      <c r="AF16" s="183"/>
-      <c r="AG16" s="184"/>
-      <c r="AH16" s="184"/>
-      <c r="AI16" s="185"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="146"/>
+      <c r="S16" s="146"/>
+      <c r="T16" s="146"/>
+      <c r="U16" s="146"/>
+      <c r="V16" s="146"/>
+      <c r="W16" s="146"/>
+      <c r="X16" s="146"/>
+      <c r="Y16" s="146"/>
+      <c r="Z16" s="146"/>
+      <c r="AA16" s="146"/>
+      <c r="AB16" s="146"/>
+      <c r="AC16" s="146"/>
+      <c r="AD16" s="146"/>
+      <c r="AE16" s="147"/>
+      <c r="AF16" s="142"/>
+      <c r="AG16" s="143"/>
+      <c r="AH16" s="143"/>
+      <c r="AI16" s="144"/>
     </row>
     <row r="17" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="184"/>
-      <c r="N17" s="184"/>
-      <c r="O17" s="184"/>
-      <c r="P17" s="185"/>
-      <c r="Q17" s="186"/>
-      <c r="R17" s="187"/>
-      <c r="S17" s="187"/>
-      <c r="T17" s="187"/>
-      <c r="U17" s="187"/>
-      <c r="V17" s="187"/>
-      <c r="W17" s="187"/>
-      <c r="X17" s="187"/>
-      <c r="Y17" s="187"/>
-      <c r="Z17" s="187"/>
-      <c r="AA17" s="187"/>
-      <c r="AB17" s="187"/>
-      <c r="AC17" s="187"/>
-      <c r="AD17" s="187"/>
-      <c r="AE17" s="188"/>
-      <c r="AF17" s="183"/>
-      <c r="AG17" s="184"/>
-      <c r="AH17" s="184"/>
-      <c r="AI17" s="185"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="146"/>
+      <c r="S17" s="146"/>
+      <c r="T17" s="146"/>
+      <c r="U17" s="146"/>
+      <c r="V17" s="146"/>
+      <c r="W17" s="146"/>
+      <c r="X17" s="146"/>
+      <c r="Y17" s="146"/>
+      <c r="Z17" s="146"/>
+      <c r="AA17" s="146"/>
+      <c r="AB17" s="146"/>
+      <c r="AC17" s="146"/>
+      <c r="AD17" s="146"/>
+      <c r="AE17" s="147"/>
+      <c r="AF17" s="142"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="143"/>
+      <c r="AI17" s="144"/>
     </row>
     <row r="18" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="184"/>
-      <c r="N18" s="184"/>
-      <c r="O18" s="184"/>
-      <c r="P18" s="185"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="187"/>
-      <c r="S18" s="187"/>
-      <c r="T18" s="187"/>
-      <c r="U18" s="187"/>
-      <c r="V18" s="187"/>
-      <c r="W18" s="187"/>
-      <c r="X18" s="187"/>
-      <c r="Y18" s="187"/>
-      <c r="Z18" s="187"/>
-      <c r="AA18" s="187"/>
-      <c r="AB18" s="187"/>
-      <c r="AC18" s="187"/>
-      <c r="AD18" s="187"/>
-      <c r="AE18" s="188"/>
-      <c r="AF18" s="183"/>
-      <c r="AG18" s="184"/>
-      <c r="AH18" s="184"/>
-      <c r="AI18" s="185"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="146"/>
+      <c r="S18" s="146"/>
+      <c r="T18" s="146"/>
+      <c r="U18" s="146"/>
+      <c r="V18" s="146"/>
+      <c r="W18" s="146"/>
+      <c r="X18" s="146"/>
+      <c r="Y18" s="146"/>
+      <c r="Z18" s="146"/>
+      <c r="AA18" s="146"/>
+      <c r="AB18" s="146"/>
+      <c r="AC18" s="146"/>
+      <c r="AD18" s="146"/>
+      <c r="AE18" s="147"/>
+      <c r="AF18" s="142"/>
+      <c r="AG18" s="143"/>
+      <c r="AH18" s="143"/>
+      <c r="AI18" s="144"/>
     </row>
     <row r="19" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="184"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="184"/>
-      <c r="N19" s="184"/>
-      <c r="O19" s="184"/>
-      <c r="P19" s="185"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="187"/>
-      <c r="S19" s="187"/>
-      <c r="T19" s="187"/>
-      <c r="U19" s="187"/>
-      <c r="V19" s="187"/>
-      <c r="W19" s="187"/>
-      <c r="X19" s="187"/>
-      <c r="Y19" s="187"/>
-      <c r="Z19" s="187"/>
-      <c r="AA19" s="187"/>
-      <c r="AB19" s="187"/>
-      <c r="AC19" s="187"/>
-      <c r="AD19" s="187"/>
-      <c r="AE19" s="188"/>
-      <c r="AF19" s="183"/>
-      <c r="AG19" s="184"/>
-      <c r="AH19" s="184"/>
-      <c r="AI19" s="185"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="146"/>
+      <c r="S19" s="146"/>
+      <c r="T19" s="146"/>
+      <c r="U19" s="146"/>
+      <c r="V19" s="146"/>
+      <c r="W19" s="146"/>
+      <c r="X19" s="146"/>
+      <c r="Y19" s="146"/>
+      <c r="Z19" s="146"/>
+      <c r="AA19" s="146"/>
+      <c r="AB19" s="146"/>
+      <c r="AC19" s="146"/>
+      <c r="AD19" s="146"/>
+      <c r="AE19" s="147"/>
+      <c r="AF19" s="142"/>
+      <c r="AG19" s="143"/>
+      <c r="AH19" s="143"/>
+      <c r="AI19" s="144"/>
     </row>
     <row r="20" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="184"/>
-      <c r="L20" s="184"/>
-      <c r="M20" s="184"/>
-      <c r="N20" s="184"/>
-      <c r="O20" s="184"/>
-      <c r="P20" s="185"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="187"/>
-      <c r="S20" s="187"/>
-      <c r="T20" s="187"/>
-      <c r="U20" s="187"/>
-      <c r="V20" s="187"/>
-      <c r="W20" s="187"/>
-      <c r="X20" s="187"/>
-      <c r="Y20" s="187"/>
-      <c r="Z20" s="187"/>
-      <c r="AA20" s="187"/>
-      <c r="AB20" s="187"/>
-      <c r="AC20" s="187"/>
-      <c r="AD20" s="187"/>
-      <c r="AE20" s="188"/>
-      <c r="AF20" s="183"/>
-      <c r="AG20" s="184"/>
-      <c r="AH20" s="184"/>
-      <c r="AI20" s="185"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="145"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="146"/>
+      <c r="T20" s="146"/>
+      <c r="U20" s="146"/>
+      <c r="V20" s="146"/>
+      <c r="W20" s="146"/>
+      <c r="X20" s="146"/>
+      <c r="Y20" s="146"/>
+      <c r="Z20" s="146"/>
+      <c r="AA20" s="146"/>
+      <c r="AB20" s="146"/>
+      <c r="AC20" s="146"/>
+      <c r="AD20" s="146"/>
+      <c r="AE20" s="147"/>
+      <c r="AF20" s="142"/>
+      <c r="AG20" s="143"/>
+      <c r="AH20" s="143"/>
+      <c r="AI20" s="144"/>
     </row>
     <row r="21" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="184"/>
-      <c r="L21" s="184"/>
-      <c r="M21" s="184"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="185"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="187"/>
-      <c r="S21" s="187"/>
-      <c r="T21" s="187"/>
-      <c r="U21" s="187"/>
-      <c r="V21" s="187"/>
-      <c r="W21" s="187"/>
-      <c r="X21" s="187"/>
-      <c r="Y21" s="187"/>
-      <c r="Z21" s="187"/>
-      <c r="AA21" s="187"/>
-      <c r="AB21" s="187"/>
-      <c r="AC21" s="187"/>
-      <c r="AD21" s="187"/>
-      <c r="AE21" s="188"/>
-      <c r="AF21" s="183"/>
-      <c r="AG21" s="184"/>
-      <c r="AH21" s="184"/>
-      <c r="AI21" s="185"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="146"/>
+      <c r="S21" s="146"/>
+      <c r="T21" s="146"/>
+      <c r="U21" s="146"/>
+      <c r="V21" s="146"/>
+      <c r="W21" s="146"/>
+      <c r="X21" s="146"/>
+      <c r="Y21" s="146"/>
+      <c r="Z21" s="146"/>
+      <c r="AA21" s="146"/>
+      <c r="AB21" s="146"/>
+      <c r="AC21" s="146"/>
+      <c r="AD21" s="146"/>
+      <c r="AE21" s="147"/>
+      <c r="AF21" s="142"/>
+      <c r="AG21" s="143"/>
+      <c r="AH21" s="143"/>
+      <c r="AI21" s="144"/>
     </row>
     <row r="22" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16"/>
-      <c r="B22" s="177"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="184"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="184"/>
-      <c r="N22" s="184"/>
-      <c r="O22" s="184"/>
-      <c r="P22" s="185"/>
-      <c r="Q22" s="186"/>
-      <c r="R22" s="187"/>
-      <c r="S22" s="187"/>
-      <c r="T22" s="187"/>
-      <c r="U22" s="187"/>
-      <c r="V22" s="187"/>
-      <c r="W22" s="187"/>
-      <c r="X22" s="187"/>
-      <c r="Y22" s="187"/>
-      <c r="Z22" s="187"/>
-      <c r="AA22" s="187"/>
-      <c r="AB22" s="187"/>
-      <c r="AC22" s="187"/>
-      <c r="AD22" s="187"/>
-      <c r="AE22" s="188"/>
-      <c r="AF22" s="183"/>
-      <c r="AG22" s="184"/>
-      <c r="AH22" s="184"/>
-      <c r="AI22" s="185"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="146"/>
+      <c r="S22" s="146"/>
+      <c r="T22" s="146"/>
+      <c r="U22" s="146"/>
+      <c r="V22" s="146"/>
+      <c r="W22" s="146"/>
+      <c r="X22" s="146"/>
+      <c r="Y22" s="146"/>
+      <c r="Z22" s="146"/>
+      <c r="AA22" s="146"/>
+      <c r="AB22" s="146"/>
+      <c r="AC22" s="146"/>
+      <c r="AD22" s="146"/>
+      <c r="AE22" s="147"/>
+      <c r="AF22" s="142"/>
+      <c r="AG22" s="143"/>
+      <c r="AH22" s="143"/>
+      <c r="AI22" s="144"/>
     </row>
     <row r="23" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16"/>
-      <c r="B23" s="177"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="184"/>
-      <c r="O23" s="184"/>
-      <c r="P23" s="185"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="187"/>
-      <c r="S23" s="187"/>
-      <c r="T23" s="187"/>
-      <c r="U23" s="187"/>
-      <c r="V23" s="187"/>
-      <c r="W23" s="187"/>
-      <c r="X23" s="187"/>
-      <c r="Y23" s="187"/>
-      <c r="Z23" s="187"/>
-      <c r="AA23" s="187"/>
-      <c r="AB23" s="187"/>
-      <c r="AC23" s="187"/>
-      <c r="AD23" s="187"/>
-      <c r="AE23" s="188"/>
-      <c r="AF23" s="183"/>
-      <c r="AG23" s="184"/>
-      <c r="AH23" s="184"/>
-      <c r="AI23" s="185"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="144"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="146"/>
+      <c r="S23" s="146"/>
+      <c r="T23" s="146"/>
+      <c r="U23" s="146"/>
+      <c r="V23" s="146"/>
+      <c r="W23" s="146"/>
+      <c r="X23" s="146"/>
+      <c r="Y23" s="146"/>
+      <c r="Z23" s="146"/>
+      <c r="AA23" s="146"/>
+      <c r="AB23" s="146"/>
+      <c r="AC23" s="146"/>
+      <c r="AD23" s="146"/>
+      <c r="AE23" s="147"/>
+      <c r="AF23" s="142"/>
+      <c r="AG23" s="143"/>
+      <c r="AH23" s="143"/>
+      <c r="AI23" s="144"/>
     </row>
     <row r="24" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="185"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="187"/>
-      <c r="S24" s="187"/>
-      <c r="T24" s="187"/>
-      <c r="U24" s="187"/>
-      <c r="V24" s="187"/>
-      <c r="W24" s="187"/>
-      <c r="X24" s="187"/>
-      <c r="Y24" s="187"/>
-      <c r="Z24" s="187"/>
-      <c r="AA24" s="187"/>
-      <c r="AB24" s="187"/>
-      <c r="AC24" s="187"/>
-      <c r="AD24" s="187"/>
-      <c r="AE24" s="188"/>
-      <c r="AF24" s="183"/>
-      <c r="AG24" s="184"/>
-      <c r="AH24" s="184"/>
-      <c r="AI24" s="185"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="144"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="146"/>
+      <c r="S24" s="146"/>
+      <c r="T24" s="146"/>
+      <c r="U24" s="146"/>
+      <c r="V24" s="146"/>
+      <c r="W24" s="146"/>
+      <c r="X24" s="146"/>
+      <c r="Y24" s="146"/>
+      <c r="Z24" s="146"/>
+      <c r="AA24" s="146"/>
+      <c r="AB24" s="146"/>
+      <c r="AC24" s="146"/>
+      <c r="AD24" s="146"/>
+      <c r="AE24" s="147"/>
+      <c r="AF24" s="142"/>
+      <c r="AG24" s="143"/>
+      <c r="AH24" s="143"/>
+      <c r="AI24" s="144"/>
     </row>
     <row r="25" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="184"/>
-      <c r="N25" s="184"/>
-      <c r="O25" s="184"/>
-      <c r="P25" s="185"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="187"/>
-      <c r="S25" s="187"/>
-      <c r="T25" s="187"/>
-      <c r="U25" s="187"/>
-      <c r="V25" s="187"/>
-      <c r="W25" s="187"/>
-      <c r="X25" s="187"/>
-      <c r="Y25" s="187"/>
-      <c r="Z25" s="187"/>
-      <c r="AA25" s="187"/>
-      <c r="AB25" s="187"/>
-      <c r="AC25" s="187"/>
-      <c r="AD25" s="187"/>
-      <c r="AE25" s="188"/>
-      <c r="AF25" s="183"/>
-      <c r="AG25" s="184"/>
-      <c r="AH25" s="184"/>
-      <c r="AI25" s="185"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="144"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="146"/>
+      <c r="S25" s="146"/>
+      <c r="T25" s="146"/>
+      <c r="U25" s="146"/>
+      <c r="V25" s="146"/>
+      <c r="W25" s="146"/>
+      <c r="X25" s="146"/>
+      <c r="Y25" s="146"/>
+      <c r="Z25" s="146"/>
+      <c r="AA25" s="146"/>
+      <c r="AB25" s="146"/>
+      <c r="AC25" s="146"/>
+      <c r="AD25" s="146"/>
+      <c r="AE25" s="147"/>
+      <c r="AF25" s="142"/>
+      <c r="AG25" s="143"/>
+      <c r="AH25" s="143"/>
+      <c r="AI25" s="144"/>
     </row>
     <row r="26" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="184"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="184"/>
-      <c r="O26" s="184"/>
-      <c r="P26" s="185"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="187"/>
-      <c r="S26" s="187"/>
-      <c r="T26" s="187"/>
-      <c r="U26" s="187"/>
-      <c r="V26" s="187"/>
-      <c r="W26" s="187"/>
-      <c r="X26" s="187"/>
-      <c r="Y26" s="187"/>
-      <c r="Z26" s="187"/>
-      <c r="AA26" s="187"/>
-      <c r="AB26" s="187"/>
-      <c r="AC26" s="187"/>
-      <c r="AD26" s="187"/>
-      <c r="AE26" s="188"/>
-      <c r="AF26" s="183"/>
-      <c r="AG26" s="184"/>
-      <c r="AH26" s="184"/>
-      <c r="AI26" s="185"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="144"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="146"/>
+      <c r="S26" s="146"/>
+      <c r="T26" s="146"/>
+      <c r="U26" s="146"/>
+      <c r="V26" s="146"/>
+      <c r="W26" s="146"/>
+      <c r="X26" s="146"/>
+      <c r="Y26" s="146"/>
+      <c r="Z26" s="146"/>
+      <c r="AA26" s="146"/>
+      <c r="AB26" s="146"/>
+      <c r="AC26" s="146"/>
+      <c r="AD26" s="146"/>
+      <c r="AE26" s="147"/>
+      <c r="AF26" s="142"/>
+      <c r="AG26" s="143"/>
+      <c r="AH26" s="143"/>
+      <c r="AI26" s="144"/>
     </row>
     <row r="27" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="184"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="184"/>
-      <c r="P27" s="185"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="187"/>
-      <c r="S27" s="187"/>
-      <c r="T27" s="187"/>
-      <c r="U27" s="187"/>
-      <c r="V27" s="187"/>
-      <c r="W27" s="187"/>
-      <c r="X27" s="187"/>
-      <c r="Y27" s="187"/>
-      <c r="Z27" s="187"/>
-      <c r="AA27" s="187"/>
-      <c r="AB27" s="187"/>
-      <c r="AC27" s="187"/>
-      <c r="AD27" s="187"/>
-      <c r="AE27" s="188"/>
-      <c r="AF27" s="183"/>
-      <c r="AG27" s="184"/>
-      <c r="AH27" s="184"/>
-      <c r="AI27" s="185"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="144"/>
+      <c r="Q27" s="145"/>
+      <c r="R27" s="146"/>
+      <c r="S27" s="146"/>
+      <c r="T27" s="146"/>
+      <c r="U27" s="146"/>
+      <c r="V27" s="146"/>
+      <c r="W27" s="146"/>
+      <c r="X27" s="146"/>
+      <c r="Y27" s="146"/>
+      <c r="Z27" s="146"/>
+      <c r="AA27" s="146"/>
+      <c r="AB27" s="146"/>
+      <c r="AC27" s="146"/>
+      <c r="AD27" s="146"/>
+      <c r="AE27" s="147"/>
+      <c r="AF27" s="142"/>
+      <c r="AG27" s="143"/>
+      <c r="AH27" s="143"/>
+      <c r="AI27" s="144"/>
     </row>
     <row r="28" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
-      <c r="B28" s="177"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="185"/>
-      <c r="Q28" s="186"/>
-      <c r="R28" s="187"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="187"/>
-      <c r="U28" s="187"/>
-      <c r="V28" s="187"/>
-      <c r="W28" s="187"/>
-      <c r="X28" s="187"/>
-      <c r="Y28" s="187"/>
-      <c r="Z28" s="187"/>
-      <c r="AA28" s="187"/>
-      <c r="AB28" s="187"/>
-      <c r="AC28" s="187"/>
-      <c r="AD28" s="187"/>
-      <c r="AE28" s="188"/>
-      <c r="AF28" s="183"/>
-      <c r="AG28" s="184"/>
-      <c r="AH28" s="184"/>
-      <c r="AI28" s="185"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="144"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="146"/>
+      <c r="S28" s="146"/>
+      <c r="T28" s="146"/>
+      <c r="U28" s="146"/>
+      <c r="V28" s="146"/>
+      <c r="W28" s="146"/>
+      <c r="X28" s="146"/>
+      <c r="Y28" s="146"/>
+      <c r="Z28" s="146"/>
+      <c r="AA28" s="146"/>
+      <c r="AB28" s="146"/>
+      <c r="AC28" s="146"/>
+      <c r="AD28" s="146"/>
+      <c r="AE28" s="147"/>
+      <c r="AF28" s="142"/>
+      <c r="AG28" s="143"/>
+      <c r="AH28" s="143"/>
+      <c r="AI28" s="144"/>
     </row>
     <row r="29" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
-      <c r="B29" s="177"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="184"/>
-      <c r="P29" s="185"/>
-      <c r="Q29" s="186"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
-      <c r="T29" s="187"/>
-      <c r="U29" s="187"/>
-      <c r="V29" s="187"/>
-      <c r="W29" s="187"/>
-      <c r="X29" s="187"/>
-      <c r="Y29" s="187"/>
-      <c r="Z29" s="187"/>
-      <c r="AA29" s="187"/>
-      <c r="AB29" s="187"/>
-      <c r="AC29" s="187"/>
-      <c r="AD29" s="187"/>
-      <c r="AE29" s="188"/>
-      <c r="AF29" s="183"/>
-      <c r="AG29" s="184"/>
-      <c r="AH29" s="184"/>
-      <c r="AI29" s="185"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="143"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="144"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="146"/>
+      <c r="S29" s="146"/>
+      <c r="T29" s="146"/>
+      <c r="U29" s="146"/>
+      <c r="V29" s="146"/>
+      <c r="W29" s="146"/>
+      <c r="X29" s="146"/>
+      <c r="Y29" s="146"/>
+      <c r="Z29" s="146"/>
+      <c r="AA29" s="146"/>
+      <c r="AB29" s="146"/>
+      <c r="AC29" s="146"/>
+      <c r="AD29" s="146"/>
+      <c r="AE29" s="147"/>
+      <c r="AF29" s="142"/>
+      <c r="AG29" s="143"/>
+      <c r="AH29" s="143"/>
+      <c r="AI29" s="144"/>
     </row>
     <row r="30" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
-      <c r="B30" s="177"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="184"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="184"/>
-      <c r="N30" s="184"/>
-      <c r="O30" s="184"/>
-      <c r="P30" s="185"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="187"/>
-      <c r="S30" s="187"/>
-      <c r="T30" s="187"/>
-      <c r="U30" s="187"/>
-      <c r="V30" s="187"/>
-      <c r="W30" s="187"/>
-      <c r="X30" s="187"/>
-      <c r="Y30" s="187"/>
-      <c r="Z30" s="187"/>
-      <c r="AA30" s="187"/>
-      <c r="AB30" s="187"/>
-      <c r="AC30" s="187"/>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="188"/>
-      <c r="AF30" s="183"/>
-      <c r="AG30" s="184"/>
-      <c r="AH30" s="184"/>
-      <c r="AI30" s="185"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="143"/>
+      <c r="N30" s="143"/>
+      <c r="O30" s="143"/>
+      <c r="P30" s="144"/>
+      <c r="Q30" s="145"/>
+      <c r="R30" s="146"/>
+      <c r="S30" s="146"/>
+      <c r="T30" s="146"/>
+      <c r="U30" s="146"/>
+      <c r="V30" s="146"/>
+      <c r="W30" s="146"/>
+      <c r="X30" s="146"/>
+      <c r="Y30" s="146"/>
+      <c r="Z30" s="146"/>
+      <c r="AA30" s="146"/>
+      <c r="AB30" s="146"/>
+      <c r="AC30" s="146"/>
+      <c r="AD30" s="146"/>
+      <c r="AE30" s="147"/>
+      <c r="AF30" s="142"/>
+      <c r="AG30" s="143"/>
+      <c r="AH30" s="143"/>
+      <c r="AI30" s="144"/>
     </row>
     <row r="31" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
-      <c r="B31" s="177"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="185"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="187"/>
-      <c r="S31" s="187"/>
-      <c r="T31" s="187"/>
-      <c r="U31" s="187"/>
-      <c r="V31" s="187"/>
-      <c r="W31" s="187"/>
-      <c r="X31" s="187"/>
-      <c r="Y31" s="187"/>
-      <c r="Z31" s="187"/>
-      <c r="AA31" s="187"/>
-      <c r="AB31" s="187"/>
-      <c r="AC31" s="187"/>
-      <c r="AD31" s="187"/>
-      <c r="AE31" s="188"/>
-      <c r="AF31" s="183"/>
-      <c r="AG31" s="184"/>
-      <c r="AH31" s="184"/>
-      <c r="AI31" s="185"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="143"/>
+      <c r="N31" s="143"/>
+      <c r="O31" s="143"/>
+      <c r="P31" s="144"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="146"/>
+      <c r="T31" s="146"/>
+      <c r="U31" s="146"/>
+      <c r="V31" s="146"/>
+      <c r="W31" s="146"/>
+      <c r="X31" s="146"/>
+      <c r="Y31" s="146"/>
+      <c r="Z31" s="146"/>
+      <c r="AA31" s="146"/>
+      <c r="AB31" s="146"/>
+      <c r="AC31" s="146"/>
+      <c r="AD31" s="146"/>
+      <c r="AE31" s="147"/>
+      <c r="AF31" s="142"/>
+      <c r="AG31" s="143"/>
+      <c r="AH31" s="143"/>
+      <c r="AI31" s="144"/>
     </row>
     <row r="32" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
-      <c r="B32" s="177"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="182"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="203"/>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="184"/>
-      <c r="P32" s="185"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="187"/>
-      <c r="S32" s="187"/>
-      <c r="T32" s="187"/>
-      <c r="U32" s="187"/>
-      <c r="V32" s="187"/>
-      <c r="W32" s="187"/>
-      <c r="X32" s="187"/>
-      <c r="Y32" s="187"/>
-      <c r="Z32" s="187"/>
-      <c r="AA32" s="187"/>
-      <c r="AB32" s="187"/>
-      <c r="AC32" s="187"/>
-      <c r="AD32" s="187"/>
-      <c r="AE32" s="188"/>
-      <c r="AF32" s="183"/>
-      <c r="AG32" s="184"/>
-      <c r="AH32" s="184"/>
-      <c r="AI32" s="185"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="143"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="143"/>
+      <c r="P32" s="144"/>
+      <c r="Q32" s="145"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="146"/>
+      <c r="T32" s="146"/>
+      <c r="U32" s="146"/>
+      <c r="V32" s="146"/>
+      <c r="W32" s="146"/>
+      <c r="X32" s="146"/>
+      <c r="Y32" s="146"/>
+      <c r="Z32" s="146"/>
+      <c r="AA32" s="146"/>
+      <c r="AB32" s="146"/>
+      <c r="AC32" s="146"/>
+      <c r="AD32" s="146"/>
+      <c r="AE32" s="147"/>
+      <c r="AF32" s="142"/>
+      <c r="AG32" s="143"/>
+      <c r="AH32" s="143"/>
+      <c r="AI32" s="144"/>
     </row>
     <row r="33" spans="1:35" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="184"/>
-      <c r="O33" s="184"/>
-      <c r="P33" s="185"/>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="187"/>
-      <c r="S33" s="187"/>
-      <c r="T33" s="187"/>
-      <c r="U33" s="187"/>
-      <c r="V33" s="187"/>
-      <c r="W33" s="187"/>
-      <c r="X33" s="187"/>
-      <c r="Y33" s="187"/>
-      <c r="Z33" s="187"/>
-      <c r="AA33" s="187"/>
-      <c r="AB33" s="187"/>
-      <c r="AC33" s="187"/>
-      <c r="AD33" s="187"/>
-      <c r="AE33" s="188"/>
-      <c r="AF33" s="183"/>
-      <c r="AG33" s="184"/>
-      <c r="AH33" s="184"/>
-      <c r="AI33" s="185"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="144"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="146"/>
+      <c r="S33" s="146"/>
+      <c r="T33" s="146"/>
+      <c r="U33" s="146"/>
+      <c r="V33" s="146"/>
+      <c r="W33" s="146"/>
+      <c r="X33" s="146"/>
+      <c r="Y33" s="146"/>
+      <c r="Z33" s="146"/>
+      <c r="AA33" s="146"/>
+      <c r="AB33" s="146"/>
+      <c r="AC33" s="146"/>
+      <c r="AD33" s="146"/>
+      <c r="AE33" s="147"/>
+      <c r="AF33" s="142"/>
+      <c r="AG33" s="143"/>
+      <c r="AH33" s="143"/>
+      <c r="AI33" s="144"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -19117,6 +18802,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -19273,164 +19114,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="146" t="str">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v xml:space="preserve">サンプルプロジェクト
 </v>
       </c>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="156" t="s">
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="209" t="str">
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(帳票)</v>
       </c>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="207" t="s">
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
+      <c r="Y1" s="193"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="174" t="str">
+      <c r="AB1" s="207"/>
+      <c r="AC1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="204">
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="203"/>
+      <c r="AG1" s="208">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="205"/>
-      <c r="AI1" s="206"/>
+      <c r="AH1" s="209"/>
+      <c r="AI1" s="210"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146" t="str">
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="207" t="s">
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="197"/>
+      <c r="AA2" s="206" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="174" t="str">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="204" t="str">
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="210"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="146" t="str">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="207"/>
-      <c r="AB3" s="208"/>
-      <c r="AC3" s="174" t="str">
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="200"/>
+      <c r="AA3" s="206"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="204" t="str">
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="205"/>
-      <c r="AI3" s="206"/>
+      <c r="AH3" s="209"/>
+      <c r="AI3" s="210"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -20418,6 +20259,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -20427,14 +20276,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -20462,166 +20303,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="146" t="str">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v xml:space="preserve">サンプルプロジェクト
 </v>
       </c>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="221" t="s">
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="230" t="str">
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(帳票)</v>
       </c>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="232"/>
-      <c r="AA1" s="143" t="s">
+      <c r="T1" s="224"/>
+      <c r="U1" s="224"/>
+      <c r="V1" s="224"/>
+      <c r="W1" s="224"/>
+      <c r="X1" s="224"/>
+      <c r="Y1" s="224"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="174" t="str">
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="204">
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="203"/>
+      <c r="AG1" s="208">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="205"/>
-      <c r="AI1" s="206"/>
+      <c r="AH1" s="209"/>
+      <c r="AI1" s="210"/>
       <c r="AJ1" s="7"/>
       <c r="AN1" s="32"/>
       <c r="AO1" s="32"/>
       <c r="AP1" s="32"/>
     </row>
     <row r="2" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146" t="str">
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="233"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="143" t="s">
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="219"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="227"/>
+      <c r="U2" s="227"/>
+      <c r="V2" s="227"/>
+      <c r="W2" s="227"/>
+      <c r="X2" s="227"/>
+      <c r="Y2" s="227"/>
+      <c r="Z2" s="228"/>
+      <c r="AA2" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="174" t="str">
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="218" t="str">
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="219"/>
-      <c r="AI2" s="220"/>
+      <c r="AH2" s="212"/>
+      <c r="AI2" s="213"/>
       <c r="AJ2" s="7"/>
       <c r="AN2" s="32"/>
       <c r="AO2" s="32"/>
       <c r="AP2" s="32"/>
     </row>
     <row r="3" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="146" t="str">
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="229"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="174" t="str">
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="220"/>
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="222"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="230"/>
+      <c r="U3" s="230"/>
+      <c r="V3" s="230"/>
+      <c r="W3" s="230"/>
+      <c r="X3" s="230"/>
+      <c r="Y3" s="230"/>
+      <c r="Z3" s="231"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="218" t="str">
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="211" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="219"/>
-      <c r="AI3" s="220"/>
+      <c r="AH3" s="212"/>
+      <c r="AI3" s="213"/>
       <c r="AJ3" s="7"/>
       <c r="AN3" s="32"/>
       <c r="AO3" s="32"/>
@@ -22303,40 +22144,40 @@
       <c r="A50" s="32"/>
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
-      <c r="D50" s="215" t="s">
+      <c r="D50" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="216"/>
-      <c r="F50" s="216"/>
-      <c r="G50" s="216"/>
-      <c r="H50" s="216"/>
-      <c r="I50" s="216"/>
-      <c r="J50" s="216"/>
-      <c r="K50" s="217"/>
-      <c r="L50" s="215" t="s">
+      <c r="E50" s="238"/>
+      <c r="F50" s="238"/>
+      <c r="G50" s="238"/>
+      <c r="H50" s="238"/>
+      <c r="I50" s="238"/>
+      <c r="J50" s="238"/>
+      <c r="K50" s="239"/>
+      <c r="L50" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="M50" s="216"/>
-      <c r="N50" s="216"/>
-      <c r="O50" s="217"/>
-      <c r="P50" s="215" t="s">
+      <c r="M50" s="238"/>
+      <c r="N50" s="238"/>
+      <c r="O50" s="239"/>
+      <c r="P50" s="237" t="s">
         <v>50</v>
       </c>
-      <c r="Q50" s="216"/>
-      <c r="R50" s="216"/>
-      <c r="S50" s="216"/>
-      <c r="T50" s="216"/>
-      <c r="U50" s="216"/>
-      <c r="V50" s="216"/>
-      <c r="W50" s="216"/>
-      <c r="X50" s="216"/>
-      <c r="Y50" s="216"/>
-      <c r="Z50" s="216"/>
-      <c r="AA50" s="216"/>
-      <c r="AB50" s="216"/>
-      <c r="AC50" s="216"/>
-      <c r="AD50" s="216"/>
-      <c r="AE50" s="217"/>
+      <c r="Q50" s="238"/>
+      <c r="R50" s="238"/>
+      <c r="S50" s="238"/>
+      <c r="T50" s="238"/>
+      <c r="U50" s="238"/>
+      <c r="V50" s="238"/>
+      <c r="W50" s="238"/>
+      <c r="X50" s="238"/>
+      <c r="Y50" s="238"/>
+      <c r="Z50" s="238"/>
+      <c r="AA50" s="238"/>
+      <c r="AB50" s="238"/>
+      <c r="AC50" s="238"/>
+      <c r="AD50" s="238"/>
+      <c r="AE50" s="239"/>
       <c r="AF50" s="32"/>
       <c r="AG50" s="32"/>
       <c r="AH50" s="32"/>
@@ -22347,34 +22188,34 @@
       <c r="A51" s="32"/>
       <c r="B51" s="53"/>
       <c r="C51" s="53"/>
-      <c r="D51" s="210"/>
-      <c r="E51" s="211"/>
-      <c r="F51" s="211"/>
-      <c r="G51" s="211"/>
-      <c r="H51" s="211"/>
-      <c r="I51" s="211"/>
-      <c r="J51" s="211"/>
-      <c r="K51" s="212"/>
-      <c r="L51" s="210"/>
-      <c r="M51" s="211"/>
-      <c r="N51" s="211"/>
-      <c r="O51" s="212"/>
-      <c r="P51" s="210"/>
-      <c r="Q51" s="211"/>
-      <c r="R51" s="211"/>
-      <c r="S51" s="211"/>
-      <c r="T51" s="211"/>
-      <c r="U51" s="211"/>
-      <c r="V51" s="211"/>
-      <c r="W51" s="211"/>
-      <c r="X51" s="211"/>
-      <c r="Y51" s="211"/>
-      <c r="Z51" s="211"/>
-      <c r="AA51" s="211"/>
-      <c r="AB51" s="211"/>
-      <c r="AC51" s="211"/>
-      <c r="AD51" s="211"/>
-      <c r="AE51" s="212"/>
+      <c r="D51" s="234"/>
+      <c r="E51" s="235"/>
+      <c r="F51" s="235"/>
+      <c r="G51" s="235"/>
+      <c r="H51" s="235"/>
+      <c r="I51" s="235"/>
+      <c r="J51" s="235"/>
+      <c r="K51" s="236"/>
+      <c r="L51" s="234"/>
+      <c r="M51" s="235"/>
+      <c r="N51" s="235"/>
+      <c r="O51" s="236"/>
+      <c r="P51" s="234"/>
+      <c r="Q51" s="235"/>
+      <c r="R51" s="235"/>
+      <c r="S51" s="235"/>
+      <c r="T51" s="235"/>
+      <c r="U51" s="235"/>
+      <c r="V51" s="235"/>
+      <c r="W51" s="235"/>
+      <c r="X51" s="235"/>
+      <c r="Y51" s="235"/>
+      <c r="Z51" s="235"/>
+      <c r="AA51" s="235"/>
+      <c r="AB51" s="235"/>
+      <c r="AC51" s="235"/>
+      <c r="AD51" s="235"/>
+      <c r="AE51" s="236"/>
       <c r="AF51" s="32"/>
       <c r="AG51" s="32"/>
       <c r="AH51" s="32"/>
@@ -28229,11 +28070,11 @@
       <c r="D256" s="103"/>
       <c r="E256" s="116"/>
       <c r="F256" s="117"/>
-      <c r="G256" s="213" t="s">
+      <c r="G256" s="232" t="s">
         <v>122</v>
       </c>
-      <c r="H256" s="213"/>
-      <c r="I256" s="213"/>
+      <c r="H256" s="232"/>
+      <c r="I256" s="232"/>
       <c r="J256" s="117"/>
       <c r="K256" s="116"/>
       <c r="L256" s="118" t="s">
@@ -28245,11 +28086,11 @@
       <c r="P256" s="103"/>
       <c r="Q256" s="116"/>
       <c r="R256" s="117"/>
-      <c r="S256" s="213" t="s">
+      <c r="S256" s="232" t="s">
         <v>122</v>
       </c>
-      <c r="T256" s="213"/>
-      <c r="U256" s="213"/>
+      <c r="T256" s="232"/>
+      <c r="U256" s="232"/>
       <c r="V256" s="117"/>
       <c r="W256" s="116"/>
       <c r="X256" s="118" t="s">
@@ -28267,9 +28108,9 @@
       <c r="D257" s="120"/>
       <c r="E257" s="115"/>
       <c r="F257" s="121"/>
-      <c r="G257" s="214"/>
-      <c r="H257" s="214"/>
-      <c r="I257" s="214"/>
+      <c r="G257" s="233"/>
+      <c r="H257" s="233"/>
+      <c r="I257" s="233"/>
       <c r="J257" s="121"/>
       <c r="K257" s="41"/>
       <c r="L257" s="122"/>
@@ -28279,9 +28120,9 @@
       <c r="P257" s="120"/>
       <c r="Q257" s="115"/>
       <c r="R257" s="121"/>
-      <c r="S257" s="214"/>
-      <c r="T257" s="214"/>
-      <c r="U257" s="214"/>
+      <c r="S257" s="233"/>
+      <c r="T257" s="233"/>
+      <c r="U257" s="233"/>
       <c r="V257" s="121"/>
       <c r="W257" s="41"/>
       <c r="X257" s="122"/>
@@ -28918,11 +28759,11 @@
       <c r="D277" s="127"/>
       <c r="E277" s="116"/>
       <c r="F277" s="117"/>
-      <c r="G277" s="213" t="s">
+      <c r="G277" s="232" t="s">
         <v>101</v>
       </c>
-      <c r="H277" s="213"/>
-      <c r="I277" s="213"/>
+      <c r="H277" s="232"/>
+      <c r="I277" s="232"/>
       <c r="J277" s="117"/>
       <c r="K277" s="116"/>
       <c r="L277" s="118" t="s">
@@ -28936,11 +28777,11 @@
       <c r="R277" s="127"/>
       <c r="S277" s="116"/>
       <c r="T277" s="117"/>
-      <c r="U277" s="213" t="s">
+      <c r="U277" s="232" t="s">
         <v>101</v>
       </c>
-      <c r="V277" s="213"/>
-      <c r="W277" s="213"/>
+      <c r="V277" s="232"/>
+      <c r="W277" s="232"/>
       <c r="X277" s="117"/>
       <c r="Y277" s="116"/>
       <c r="Z277" s="118" t="s">
@@ -28961,9 +28802,9 @@
       <c r="D278" s="120"/>
       <c r="E278" s="115"/>
       <c r="F278" s="121"/>
-      <c r="G278" s="214"/>
-      <c r="H278" s="214"/>
-      <c r="I278" s="214"/>
+      <c r="G278" s="233"/>
+      <c r="H278" s="233"/>
+      <c r="I278" s="233"/>
       <c r="J278" s="121"/>
       <c r="K278" s="41"/>
       <c r="L278" s="122"/>
@@ -28975,9 +28816,9 @@
       <c r="R278" s="120"/>
       <c r="S278" s="115"/>
       <c r="T278" s="121"/>
-      <c r="U278" s="214"/>
-      <c r="V278" s="214"/>
-      <c r="W278" s="214"/>
+      <c r="U278" s="233"/>
+      <c r="V278" s="233"/>
+      <c r="W278" s="233"/>
       <c r="X278" s="121"/>
       <c r="Y278" s="41"/>
       <c r="Z278" s="122"/>
@@ -29401,11 +29242,11 @@
       <c r="C289" s="32"/>
       <c r="D289" s="115"/>
       <c r="E289" s="115"/>
-      <c r="F289" s="214"/>
-      <c r="G289" s="214"/>
-      <c r="H289" s="214"/>
-      <c r="I289" s="214"/>
-      <c r="J289" s="214"/>
+      <c r="F289" s="233"/>
+      <c r="G289" s="233"/>
+      <c r="H289" s="233"/>
+      <c r="I289" s="233"/>
+      <c r="J289" s="233"/>
       <c r="K289" s="115"/>
       <c r="L289" s="131"/>
       <c r="M289" s="72"/>
@@ -29416,11 +29257,11 @@
       <c r="R289" s="127"/>
       <c r="S289" s="116"/>
       <c r="T289" s="117"/>
-      <c r="U289" s="213" t="s">
+      <c r="U289" s="232" t="s">
         <v>101</v>
       </c>
-      <c r="V289" s="213"/>
-      <c r="W289" s="213"/>
+      <c r="V289" s="232"/>
+      <c r="W289" s="232"/>
       <c r="X289" s="117"/>
       <c r="Y289" s="116"/>
       <c r="Z289" s="118" t="s">
@@ -29442,11 +29283,11 @@
       <c r="C290" s="32"/>
       <c r="D290" s="115"/>
       <c r="E290" s="115"/>
-      <c r="F290" s="214"/>
-      <c r="G290" s="214"/>
-      <c r="H290" s="214"/>
-      <c r="I290" s="214"/>
-      <c r="J290" s="214"/>
+      <c r="F290" s="233"/>
+      <c r="G290" s="233"/>
+      <c r="H290" s="233"/>
+      <c r="I290" s="233"/>
+      <c r="J290" s="233"/>
       <c r="K290" s="38"/>
       <c r="L290" s="38"/>
       <c r="M290" s="72"/>
@@ -29457,9 +29298,9 @@
       <c r="R290" s="120"/>
       <c r="S290" s="115"/>
       <c r="T290" s="121"/>
-      <c r="U290" s="214"/>
-      <c r="V290" s="214"/>
-      <c r="W290" s="214"/>
+      <c r="U290" s="233"/>
+      <c r="V290" s="233"/>
+      <c r="W290" s="233"/>
       <c r="X290" s="121"/>
       <c r="Y290" s="41"/>
       <c r="Z290" s="122"/>
@@ -30022,11 +29863,11 @@
       <c r="D305" s="127"/>
       <c r="E305" s="116"/>
       <c r="F305" s="117"/>
-      <c r="G305" s="213" t="s">
+      <c r="G305" s="232" t="s">
         <v>122</v>
       </c>
-      <c r="H305" s="213"/>
-      <c r="I305" s="213"/>
+      <c r="H305" s="232"/>
+      <c r="I305" s="232"/>
       <c r="J305" s="117"/>
       <c r="K305" s="116"/>
       <c r="L305" s="118" t="s">
@@ -30040,11 +29881,11 @@
       <c r="R305" s="127"/>
       <c r="S305" s="116"/>
       <c r="T305" s="117"/>
-      <c r="U305" s="213" t="s">
+      <c r="U305" s="232" t="s">
         <v>122</v>
       </c>
-      <c r="V305" s="213"/>
-      <c r="W305" s="213"/>
+      <c r="V305" s="232"/>
+      <c r="W305" s="232"/>
       <c r="X305" s="117"/>
       <c r="Y305" s="116"/>
       <c r="Z305" s="118" t="s">
@@ -30065,9 +29906,9 @@
       <c r="D306" s="120"/>
       <c r="E306" s="115"/>
       <c r="F306" s="121"/>
-      <c r="G306" s="214"/>
-      <c r="H306" s="214"/>
-      <c r="I306" s="214"/>
+      <c r="G306" s="233"/>
+      <c r="H306" s="233"/>
+      <c r="I306" s="233"/>
       <c r="J306" s="121"/>
       <c r="K306" s="41"/>
       <c r="L306" s="122"/>
@@ -30079,9 +29920,9 @@
       <c r="R306" s="120"/>
       <c r="S306" s="115"/>
       <c r="T306" s="121"/>
-      <c r="U306" s="214"/>
-      <c r="V306" s="214"/>
-      <c r="W306" s="214"/>
+      <c r="U306" s="233"/>
+      <c r="V306" s="233"/>
+      <c r="W306" s="233"/>
       <c r="X306" s="121"/>
       <c r="Y306" s="41"/>
       <c r="Z306" s="122"/>
@@ -30506,11 +30347,11 @@
       <c r="D317" s="127"/>
       <c r="E317" s="116"/>
       <c r="F317" s="117"/>
-      <c r="G317" s="213" t="s">
+      <c r="G317" s="232" t="s">
         <v>122</v>
       </c>
-      <c r="H317" s="213"/>
-      <c r="I317" s="213"/>
+      <c r="H317" s="232"/>
+      <c r="I317" s="232"/>
       <c r="J317" s="117"/>
       <c r="K317" s="116"/>
       <c r="L317" s="118" t="s">
@@ -30524,11 +30365,11 @@
       <c r="R317" s="127"/>
       <c r="S317" s="116"/>
       <c r="T317" s="117"/>
-      <c r="U317" s="213" t="s">
+      <c r="U317" s="232" t="s">
         <v>122</v>
       </c>
-      <c r="V317" s="213"/>
-      <c r="W317" s="213"/>
+      <c r="V317" s="232"/>
+      <c r="W317" s="232"/>
       <c r="X317" s="117"/>
       <c r="Y317" s="116"/>
       <c r="Z317" s="118" t="s">
@@ -30551,9 +30392,9 @@
       <c r="D318" s="120"/>
       <c r="E318" s="115"/>
       <c r="F318" s="121"/>
-      <c r="G318" s="214"/>
-      <c r="H318" s="214"/>
-      <c r="I318" s="214"/>
+      <c r="G318" s="233"/>
+      <c r="H318" s="233"/>
+      <c r="I318" s="233"/>
       <c r="J318" s="121"/>
       <c r="K318" s="41"/>
       <c r="L318" s="122"/>
@@ -30565,9 +30406,9 @@
       <c r="R318" s="120"/>
       <c r="S318" s="115"/>
       <c r="T318" s="121"/>
-      <c r="U318" s="214"/>
-      <c r="V318" s="214"/>
-      <c r="W318" s="214"/>
+      <c r="U318" s="233"/>
+      <c r="V318" s="233"/>
+      <c r="W318" s="233"/>
       <c r="X318" s="121"/>
       <c r="Y318" s="41"/>
       <c r="Z318" s="122"/>
@@ -32195,6 +32036,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="P51:AE51"/>
+    <mergeCell ref="G256:I257"/>
+    <mergeCell ref="S256:U257"/>
+    <mergeCell ref="G277:I278"/>
+    <mergeCell ref="U277:W278"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="P50:AE50"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="G305:I306"/>
+    <mergeCell ref="U305:W306"/>
+    <mergeCell ref="G317:I318"/>
+    <mergeCell ref="U317:W318"/>
+    <mergeCell ref="F289:J290"/>
+    <mergeCell ref="U289:W290"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
@@ -32211,23 +32069,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G305:I306"/>
-    <mergeCell ref="U305:W306"/>
-    <mergeCell ref="G317:I318"/>
-    <mergeCell ref="U317:W318"/>
-    <mergeCell ref="F289:J290"/>
-    <mergeCell ref="U289:W290"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="P51:AE51"/>
-    <mergeCell ref="G256:I257"/>
-    <mergeCell ref="S256:U257"/>
-    <mergeCell ref="G277:I278"/>
-    <mergeCell ref="U277:W278"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="P50:AE50"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="D51:K51"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
